--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C2F767-BE97-4FAB-AE7B-23D9530B4550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D685D-C74D-4D74-9820-39129830FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>MSFT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>TRP.TO</t>
+  </si>
+  <si>
+    <t>SPXEFR</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,6 +485,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D685D-C74D-4D74-9820-39129830FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511B488-EB57-4EFC-8A03-2D04ECE50139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -64,27 +64,6 @@
   </si>
   <si>
     <t>Rating</t>
-  </si>
-  <si>
-    <t>TD.TO</t>
-  </si>
-  <si>
-    <t>RY.TO</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>TRP.TO</t>
-  </si>
-  <si>
-    <t>SPXEFR</t>
   </si>
 </sst>
 </file>
@@ -409,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,41 +444,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -1,95 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Stock-Screener\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511B488-EB57-4EFC-8A03-2D04ECE50139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>50 EMA</t>
-  </si>
-  <si>
-    <t>200 EMA</t>
-  </si>
-  <si>
-    <t>RSI</t>
-  </si>
-  <si>
-    <t>PEG</t>
-  </si>
-  <si>
-    <t>Close Price</t>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>52W Low</t>
-  </si>
-  <si>
-    <t>52W High</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,23 +69,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,62 +413,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col width="22.81640625" customWidth="1" min="2" max="2"/>
+    <col width="14.08984375" customWidth="1" min="3" max="3"/>
+    <col width="11.90625" customWidth="1" min="4" max="4"/>
+    <col width="8.7265625" customWidth="1" min="5" max="5"/>
+    <col width="14.90625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Close Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>P/E</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>50 EMA</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>200 EMA</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>52W Low</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>52W High</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>BTC-USD</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>TD.TO</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -1,42 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Python\Stock-Screener\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F920EE1-8DF0-4257-96D0-7388341EBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Close Price</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>50 EMA</t>
+  </si>
+  <si>
+    <t>200 EMA</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>52W Low</t>
+  </si>
+  <si>
+    <t>52W High</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -69,85 +112,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,168 +396,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="22.81640625" customWidth="1" min="2" max="2"/>
-    <col width="14.08984375" customWidth="1" min="3" max="3"/>
-    <col width="11.90625" customWidth="1" min="4" max="4"/>
-    <col width="8.7265625" customWidth="1" min="5" max="5"/>
-    <col width="14.90625" customWidth="1" min="6" max="6"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Close Price</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Dividend Yield</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>P/E</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>50 EMA</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>200 EMA</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>RSI</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>52W Low</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>52W High</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>PEG</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>QQQ</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>BTC-USD</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>TD.TO</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Python\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F920EE1-8DF0-4257-96D0-7388341EBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C8FF3E-4387-461A-8F97-BE598438ED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Python\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C8FF3E-4387-461A-8F97-BE598438ED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABD258-1801-4CA9-9508-EBF726A7F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>52W High</t>
-  </si>
-  <si>
-    <t>PEG</t>
   </si>
 </sst>
 </file>
@@ -400,7 +397,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,9 +446,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Python\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABD258-1801-4CA9-9508-EBF726A7F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E5CA7-BD44-4B55-A3D1-9C5CDDB24C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>52W High</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>SHOP.TO</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>I like cats</t>
   </si>
 </sst>
 </file>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,7 +466,9 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -466,7 +483,9 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -481,7 +500,9 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -496,7 +517,9 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -508,6 +531,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VSCode\Python\Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E5CA7-BD44-4B55-A3D1-9C5CDDB24C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD28384B-5D89-4A19-903D-9C0246658B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -56,21 +56,6 @@
   </si>
   <si>
     <t>52W High</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>SHOP.TO</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>I like cats</t>
   </si>
 </sst>
 </file>
@@ -409,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,9 +451,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -483,9 +466,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -500,9 +481,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -517,9 +496,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -531,11 +508,6 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
